--- a/supplementary/data3.xlsx
+++ b/supplementary/data3.xlsx
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
-  <si>
-    <t>Supplemental Data 3: Varying intensity (SNR) simulation parameters and correposnding fit values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
+  <si>
+    <t>Supplemental Data 3: Varying intensity (SNR) simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -924,7 +924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,7 +946,7 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,22 +972,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -1016,22 +1013,19 @@
         <v>150</v>
       </c>
       <c r="J2">
-        <v>0.3759</v>
+        <v>5</v>
       </c>
       <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>500</v>
-      </c>
       <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1060,22 +1054,19 @@
         <v>150</v>
       </c>
       <c r="J3">
-        <v>0.6264999999999999</v>
+        <v>5</v>
       </c>
       <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
       <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1104,22 +1095,19 @@
         <v>150</v>
       </c>
       <c r="J4">
-        <v>0.7518</v>
+        <v>5</v>
       </c>
       <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1148,22 +1136,19 @@
         <v>150</v>
       </c>
       <c r="J5">
-        <v>0.9397</v>
+        <v>5</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>500</v>
-      </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1192,22 +1177,19 @@
         <v>150</v>
       </c>
       <c r="J6">
-        <v>1.253</v>
+        <v>5</v>
       </c>
       <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
       <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1236,22 +1218,19 @@
         <v>150</v>
       </c>
       <c r="J7">
-        <v>1.8794</v>
+        <v>5</v>
       </c>
       <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
-        <v>500</v>
-      </c>
       <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1280,22 +1259,19 @@
         <v>150</v>
       </c>
       <c r="J8">
-        <v>2.5059</v>
+        <v>5</v>
       </c>
       <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="L8">
-        <v>500</v>
-      </c>
       <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1324,18 +1300,15 @@
         <v>150</v>
       </c>
       <c r="J9">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="L9">
-        <v>500</v>
-      </c>
       <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
         <v>14</v>
       </c>
     </row>

--- a/supplementary/data3.xlsx
+++ b/supplementary/data3.xlsx
@@ -759,13 +759,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0205</v>
+        <v>7.0151</v>
       </c>
       <c r="C2">
-        <v>7.0012</v>
+        <v>6.9948</v>
       </c>
       <c r="D2">
-        <v>7.0436</v>
+        <v>7.0365</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -776,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2054</v>
+        <v>0.2119</v>
       </c>
       <c r="C3">
-        <v>0.1948</v>
+        <v>0.2016</v>
       </c>
       <c r="D3">
-        <v>0.2138</v>
+        <v>0.222</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -793,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1556</v>
+        <v>0.1549</v>
       </c>
       <c r="C4">
-        <v>0.1445</v>
+        <v>0.1441</v>
       </c>
       <c r="D4">
         <v>0.1656</v>
@@ -810,13 +810,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1739</v>
+        <v>0.1696</v>
       </c>
       <c r="C5">
-        <v>0.1616</v>
+        <v>0.1544</v>
       </c>
       <c r="D5">
-        <v>0.1904</v>
+        <v>0.1835</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -827,13 +827,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.2117</v>
+        <v>0.2043</v>
       </c>
       <c r="C6">
-        <v>0.1927</v>
+        <v>0.1826</v>
       </c>
       <c r="D6">
-        <v>0.2352</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -841,7 +841,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7771</v>
+        <v>3.7895</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -908,13 +908,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9981</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="C15">
-        <v>0.9919</v>
+        <v>0.9781</v>
       </c>
       <c r="D15">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
     </row>
   </sheetData>
@@ -1351,13 +1351,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0168</v>
+        <v>7.0556</v>
       </c>
       <c r="C2">
-        <v>6.9986</v>
+        <v>7.0353</v>
       </c>
       <c r="D2">
-        <v>7.0386</v>
+        <v>7.077</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1368,13 +1368,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.9845</v>
+        <v>0.9644</v>
       </c>
       <c r="C3">
-        <v>0.0007</v>
+        <v>0.0002</v>
       </c>
       <c r="D3">
-        <v>2.4767</v>
+        <v>2.4814</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -1545,13 +1545,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0563</v>
+        <v>7.0642</v>
       </c>
       <c r="C2">
-        <v>7.0382</v>
+        <v>7.0444</v>
       </c>
       <c r="D2">
-        <v>7.0781</v>
+        <v>7.085</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1562,13 +1562,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2246</v>
+        <v>0.2265</v>
       </c>
       <c r="C3">
-        <v>0.1924</v>
+        <v>0.1962</v>
       </c>
       <c r="D3">
-        <v>0.2512</v>
+        <v>0.2566</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1579,13 +1579,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0012</v>
+        <v>0.0004</v>
       </c>
       <c r="C4">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0022</v>
+        <v>0.0009</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -1596,13 +1596,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0199</v>
+        <v>0.0209</v>
       </c>
       <c r="C5">
-        <v>0.0151</v>
+        <v>0.0154</v>
       </c>
       <c r="D5">
-        <v>0.0261</v>
+        <v>0.0269</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1613,13 +1613,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.0206</v>
+        <v>0.0214</v>
       </c>
       <c r="C6">
-        <v>0.0153</v>
+        <v>0.0157</v>
       </c>
       <c r="D6">
-        <v>0.0268</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1627,7 +1627,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.973</v>
+        <v>0.9902</v>
       </c>
       <c r="E7">
         <v>0.6264999999999999</v>
@@ -1638,7 +1638,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2906</v>
+        <v>0.2723</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1646,7 +1646,7 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.1029</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1654,7 +1654,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9772999999999999</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1678,7 +1678,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1686,7 +1686,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1694,13 +1694,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.0166</v>
+        <v>0.0171</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8772</v>
+        <v>0.8695000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1742,13 +1742,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0514</v>
+        <v>7.0756</v>
       </c>
       <c r="C2">
-        <v>7.0312</v>
+        <v>7.0573</v>
       </c>
       <c r="D2">
-        <v>7.0757</v>
+        <v>7.0949</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1759,13 +1759,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2245</v>
+        <v>0.2488</v>
       </c>
       <c r="C3">
-        <v>0.2059</v>
+        <v>0.228</v>
       </c>
       <c r="D3">
-        <v>0.2399</v>
+        <v>0.2691</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1776,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0042</v>
+        <v>0.0057</v>
       </c>
       <c r="C4">
-        <v>0.0025</v>
+        <v>0.0037</v>
       </c>
       <c r="D4">
-        <v>0.0061</v>
+        <v>0.0077</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -1793,13 +1793,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0596</v>
+        <v>0.061</v>
       </c>
       <c r="C5">
-        <v>0.051</v>
+        <v>0.0521</v>
       </c>
       <c r="D5">
-        <v>0.06950000000000001</v>
+        <v>0.0704</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1810,13 +1810,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.0639</v>
+        <v>0.065</v>
       </c>
       <c r="C6">
-        <v>0.0525</v>
+        <v>0.0549</v>
       </c>
       <c r="D6">
-        <v>0.0735</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1824,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9927</v>
+        <v>0.9776</v>
       </c>
       <c r="E7">
         <v>0.7518</v>
@@ -1835,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5375</v>
+        <v>0.5155999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1843,7 +1843,7 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.3397</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1851,7 +1851,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9726</v>
+        <v>0.9571</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1867,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1875,7 +1875,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1883,7 +1883,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1891,13 +1891,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.2074</v>
+        <v>0.113</v>
       </c>
       <c r="C15">
-        <v>0.0048</v>
+        <v>0.0025</v>
       </c>
       <c r="D15">
-        <v>0.9998</v>
+        <v>0.9972</v>
       </c>
     </row>
   </sheetData>
@@ -1939,13 +1939,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0781</v>
+        <v>7.0592</v>
       </c>
       <c r="C2">
-        <v>7.0583</v>
+        <v>7.0407</v>
       </c>
       <c r="D2">
-        <v>7.0973</v>
+        <v>7.0787</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1956,13 +1956,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2591</v>
+        <v>0.2656</v>
       </c>
       <c r="C3">
-        <v>0.243</v>
+        <v>0.2511</v>
       </c>
       <c r="D3">
-        <v>0.2725</v>
+        <v>0.2795</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1973,13 +1973,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0186</v>
+        <v>0.0231</v>
       </c>
       <c r="C4">
-        <v>0.0145</v>
+        <v>0.0192</v>
       </c>
       <c r="D4">
-        <v>0.0222</v>
+        <v>0.0272</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -1990,13 +1990,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1211</v>
+        <v>0.1233</v>
       </c>
       <c r="C5">
-        <v>0.109</v>
+        <v>0.1102</v>
       </c>
       <c r="D5">
-        <v>0.1332</v>
+        <v>0.136</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -2007,13 +2007,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.1375</v>
+        <v>0.1407</v>
       </c>
       <c r="C6">
-        <v>0.1224</v>
+        <v>0.1238</v>
       </c>
       <c r="D6">
-        <v>0.1537</v>
+        <v>0.1574</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.0352</v>
+        <v>1.0301</v>
       </c>
       <c r="E7">
         <v>0.9397</v>
@@ -2032,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.7959000000000001</v>
+        <v>0.7927</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2040,7 +2040,7 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.7033</v>
+        <v>0.6986</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9639</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2072,7 +2072,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2080,7 +2080,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2088,10 +2088,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9237</v>
+        <v>0.9268</v>
       </c>
       <c r="C15">
-        <v>0.049</v>
+        <v>0.0361</v>
       </c>
       <c r="D15">
         <v>0.9996</v>
@@ -2136,13 +2136,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0616</v>
+        <v>7.0389</v>
       </c>
       <c r="C2">
-        <v>7.044</v>
+        <v>7.0185</v>
       </c>
       <c r="D2">
-        <v>7.0786</v>
+        <v>7.0603</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2153,13 +2153,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2624</v>
+        <v>0.2597</v>
       </c>
       <c r="C3">
-        <v>0.248</v>
+        <v>0.2471</v>
       </c>
       <c r="D3">
-        <v>0.2743</v>
+        <v>0.2718</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2170,13 +2170,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.08790000000000001</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="C4">
-        <v>0.0791</v>
+        <v>0.0839</v>
       </c>
       <c r="D4">
-        <v>0.0951</v>
+        <v>0.1006</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -2187,13 +2187,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1735</v>
+        <v>0.1676</v>
       </c>
       <c r="C5">
-        <v>0.1606</v>
+        <v>0.1526</v>
       </c>
       <c r="D5">
-        <v>0.1888</v>
+        <v>0.1815</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -2204,13 +2204,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.2097</v>
+        <v>0.2014</v>
       </c>
       <c r="C6">
-        <v>0.1913</v>
+        <v>0.18</v>
       </c>
       <c r="D6">
-        <v>0.2327</v>
+        <v>0.2217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2218,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.2421</v>
+        <v>1.2443</v>
       </c>
       <c r="E7">
         <v>1.253</v>
@@ -2229,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9573</v>
+        <v>0.9515</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2237,7 +2237,7 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.9737</v>
+        <v>0.9665</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2245,7 +2245,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9554</v>
+        <v>0.9528</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2253,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2261,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2277,7 +2277,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2285,13 +2285,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9976</v>
+        <v>0.9954</v>
       </c>
       <c r="C15">
-        <v>0.6728</v>
+        <v>0.756</v>
       </c>
       <c r="D15">
-        <v>0.9994</v>
+        <v>0.9993</v>
       </c>
     </row>
   </sheetData>
@@ -2333,13 +2333,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0443</v>
+        <v>7.0187</v>
       </c>
       <c r="C2">
-        <v>7.0254</v>
+        <v>6.9983</v>
       </c>
       <c r="D2">
-        <v>7.0668</v>
+        <v>7.0401</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2350,13 +2350,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2264</v>
+        <v>0.2323</v>
       </c>
       <c r="C3">
-        <v>0.2142</v>
+        <v>0.2205</v>
       </c>
       <c r="D3">
-        <v>0.2364</v>
+        <v>0.2435</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2367,13 +2367,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1363</v>
+        <v>0.1382</v>
       </c>
       <c r="C4">
-        <v>0.1261</v>
+        <v>0.1284</v>
       </c>
       <c r="D4">
-        <v>0.1455</v>
+        <v>0.1479</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -2384,13 +2384,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="C5">
-        <v>0.1601</v>
+        <v>0.1578</v>
       </c>
       <c r="D5">
-        <v>0.1902</v>
+        <v>0.1889</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -2401,13 +2401,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.2103</v>
+        <v>0.2107</v>
       </c>
       <c r="C6">
-        <v>0.1907</v>
+        <v>0.1874</v>
       </c>
       <c r="D6">
-        <v>0.2348</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2415,7 +2415,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.8677</v>
+        <v>1.8731</v>
       </c>
       <c r="E7">
         <v>1.8794</v>
@@ -2426,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9786</v>
+        <v>0.9787</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2434,7 +2434,7 @@
         <v>53</v>
       </c>
       <c r="B9">
-        <v>0.9903999999999999</v>
+        <v>0.9928</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2442,7 +2442,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9741</v>
+        <v>0.9719</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2450,7 +2450,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2458,7 +2458,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2474,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2482,10 +2482,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9977</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="C15">
-        <v>0.991</v>
+        <v>0.9743000000000001</v>
       </c>
       <c r="D15">
         <v>0.9992</v>
@@ -2530,13 +2530,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0406</v>
+        <v>7.041</v>
       </c>
       <c r="C2">
-        <v>7.0231</v>
+        <v>7.0207</v>
       </c>
       <c r="D2">
-        <v>7.0616</v>
+        <v>7.0624</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2547,13 +2547,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2167</v>
+        <v>0.2225</v>
       </c>
       <c r="C3">
-        <v>0.2049</v>
+        <v>0.2111</v>
       </c>
       <c r="D3">
-        <v>0.2257</v>
+        <v>0.2334</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -2564,13 +2564,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1486</v>
+        <v>0.1507</v>
       </c>
       <c r="C4">
-        <v>0.1379</v>
+        <v>0.1405</v>
       </c>
       <c r="D4">
-        <v>0.1583</v>
+        <v>0.1608</v>
       </c>
       <c r="E4">
         <v>0.15</v>
@@ -2581,13 +2581,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1756</v>
+        <v>0.1725</v>
       </c>
       <c r="C5">
-        <v>0.1632</v>
+        <v>0.1573</v>
       </c>
       <c r="D5">
-        <v>0.1921</v>
+        <v>0.1866</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -2598,13 +2598,13 @@
         <v>52</v>
       </c>
       <c r="B6">
-        <v>0.2141</v>
+        <v>0.2086</v>
       </c>
       <c r="C6">
-        <v>0.195</v>
+        <v>0.1867</v>
       </c>
       <c r="D6">
-        <v>0.2378</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2612,7 +2612,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2.5077</v>
+        <v>2.5092</v>
       </c>
       <c r="E7">
         <v>2.5059</v>
@@ -2623,7 +2623,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9873</v>
+        <v>0.9845</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2639,7 +2639,7 @@
         <v>54</v>
       </c>
       <c r="B10">
-        <v>0.9789</v>
+        <v>0.9744</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2647,7 +2647,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2073</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2655,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2679,13 +2679,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9979</v>
+        <v>0.9969</v>
       </c>
       <c r="C15">
-        <v>0.9921</v>
+        <v>0.9798</v>
       </c>
       <c r="D15">
-        <v>0.9996</v>
+        <v>0.9992</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data3.xlsx
+++ b/supplementary/data3.xlsx
@@ -25,7 +25,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="55">
   <si>
-    <t>Supplemental Data 3: Varying intensity (SNR) simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 3: Varying intensity (SNR) simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
